--- a/templates/AutomationOrg/RSTK-9520-Refurb Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9520-Refurb Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576B21F-FE2F-4D45-85C5-B18480CC0E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29853EC5-2B0D-4CF2-A5B8-6B23D230364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
   <si>
     <t>Site</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Txn Comment</t>
-  </si>
-  <si>
-    <t>Reverse 3</t>
-  </si>
-  <si>
-    <t>Reverse 2</t>
   </si>
   <si>
     <t>Employee</t>
@@ -669,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A3:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,10 +712,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -767,63 +761,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -856,36 +850,36 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -900,15 +894,15 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -923,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -936,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,105 +962,105 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
       <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1074,49 +1068,49 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1124,49 +1118,49 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1181,10 +1175,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1248,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1283,7 +1277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1312,13 +1306,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -1338,13 +1332,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1364,25 +1358,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
-        <v>44537</v>
-      </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -1393,10 +1387,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -1405,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>20</v>
+      <c r="L7">
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -1422,22 +1413,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="4">
+        <v>44537</v>
+      </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -1448,22 +1442,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>2</v>
+      <c r="M9" t="s">
+        <v>20</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -1474,25 +1471,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
-        <v>44537</v>
-      </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1503,10 +1497,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>19</v>
@@ -1515,70 +1506,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>20</v>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1591,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,7 +1584,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -1660,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
@@ -1671,7 +1610,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1683,10 +1622,10 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
@@ -1697,7 +1636,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1709,41 +1648,15 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1754,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,46 +1697,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1861,7 +1763,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -1869,89 +1771,73 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13">
         <v>10</v>
       </c>
     </row>
@@ -1980,12 +1866,12 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1993,7 +1879,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2001,7 +1887,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/RSTK-9520-Refurb Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9520-Refurb Work Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29853EC5-2B0D-4CF2-A5B8-6B23D230364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAC3FD-0F92-44DB-BEDE-313B4C71A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
   <si>
     <t>Site</t>
   </si>
@@ -664,7 +664,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:A37"/>
     </sheetView>
   </sheetViews>
@@ -1175,10 +1175,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,25 +1358,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="4">
+        <v>44537</v>
+      </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -1387,7 +1387,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -1396,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>5</v>
+      <c r="M7" t="s">
+        <v>20</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -1415,23 +1418,20 @@
       <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
-        <v>44537</v>
-      </c>
       <c r="E8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -1444,9 +1444,6 @@
       <c r="A9" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1454,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>20</v>
+      <c r="L9">
+        <v>2</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -1471,7 +1468,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1480,44 +1480,18 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>3</v>
+      <c r="M10" t="s">
+        <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1533,7 +1507,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,15 +1740,15 @@
         <v>86</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,7 +1764,7 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,10 +1777,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,7 +1796,7 @@
         <v>90</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1830,14 +1804,6 @@
         <v>90</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11">
         <v>10</v>
       </c>
     </row>
